--- a/requests.xlsx
+++ b/requests.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,86 +450,86 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Статусы</t>
+          <t>Chlen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+3737366317271846</t>
+          <t>262626516383</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Курды мурды котак бас</t>
+          <t>Pizda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-01 16:28</t>
+          <t>2025-11-01 17:14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Володя</t>
+          <t>☎️ Связаться с нами</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+79966230023</t>
+          <t>83828246462</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Мой компьютер нуждается в профилактике</t>
+          <t>Reqwe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-11-01 16:17</t>
+          <t>2025-11-01 16:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Володя</t>
+          <t>Статусы</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+79966230023</t>
+          <t>+3737366317271846</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Не включается компьютер</t>
+          <t>Курды мурды котак бас</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-11-01 16:14</t>
+          <t>2025-11-01 16:28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Володя</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,35 +539,85 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>не включается</t>
+          <t>Мой компьютер нуждается в профилактике</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-11-01 15:38</t>
+          <t>2025-11-01 16:17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Володя</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+79966230023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Не включается компьютер</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-11-01 16:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+79966230023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>не включается</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-11-01 15:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>1</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>💡 О сервисе</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>📸 Фото сервиса</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>🕓 Время работы</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2025-11-01 15:36</t>
         </is>
